--- a/bingo.xlsx
+++ b/bingo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zdi\Desktop\BotWBingo2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5787A854-66B9-4A9C-8679-2DEC0C149BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B845A249-B541-40AE-8CE5-3203E36185B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="1995" windowWidth="14535" windowHeight="11910" xr2:uid="{7A75FF53-CC48-47AA-AE80-4125BC61A84A}"/>
+    <workbookView xWindow="1785" yWindow="615" windowWidth="14535" windowHeight="11910" xr2:uid="{7A75FF53-CC48-47AA-AE80-4125BC61A84A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="446">
   <si>
     <t>name</t>
   </si>
@@ -639,12 +639,6 @@
     <t>3 Three-shot burst bow</t>
   </si>
   <si>
-    <t>ウワサのミツバちゃん全巻読破</t>
-  </si>
-  <si>
-    <t>Read all Rumor Mill</t>
-  </si>
-  <si>
     <t>Rumor Mill</t>
   </si>
   <si>
@@ -1368,8 +1362,19 @@
     <t>Kill Stone&amp;Igneo&amp;Frost Talus</t>
   </si>
   <si>
+    <t>ウワサのミツバちゃん7巻読破</t>
+  </si>
+  <si>
+    <t>Read 7Rumor Mill</t>
+  </si>
+  <si>
     <t>40 Creatures in Compendium(without purchase)</t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミニゲーム11種クリア</t>
+  </si>
+  <si>
+    <t>11 Minigames</t>
   </si>
 </sst>
 </file>
@@ -1471,7 +1476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1491,32 +1496,33 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1833,14 +1839,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BE05A9-9116-44E7-95B0-CA26E7968EB5}">
   <dimension ref="A1:Z191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B187" sqref="B187"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="27.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1850,7 +1856,7 @@
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -1892,26 +1898,26 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1929,27 +1935,27 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1967,27 +1973,27 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" s="12">
+    <row r="4" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -2005,27 +2011,27 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -2044,26 +2050,26 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="A6" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -2081,29 +2087,29 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -2121,29 +2127,29 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="3">
         <v>2</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -2161,27 +2167,27 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="B9" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -2200,26 +2206,26 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="A10" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" s="3">
         <v>2</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -2238,26 +2244,26 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="C11" s="12">
+      <c r="A11" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2276,26 +2282,26 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="3">
         <v>2</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -2314,28 +2320,28 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="3">
         <v>3</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -2353,25 +2359,25 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C14" s="12">
+    <row r="14" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="3">
         <v>3</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="D14" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2389,29 +2395,29 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C15" s="12">
+    <row r="15" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C15" s="3">
         <v>3</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="F15" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2429,27 +2435,27 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="3">
         <v>3</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="E16" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2467,33 +2473,33 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C17" s="12">
-        <v>3</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2511,27 +2517,27 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="B18" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C18" s="3">
         <v>3</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -2550,24 +2556,24 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="3">
         <v>3</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -2586,24 +2592,24 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="3">
         <v>3</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -2621,29 +2627,29 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="3">
         <v>3</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -2662,28 +2668,28 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C22" s="12">
+      <c r="A22" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" s="3">
         <v>3</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="F22" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -2702,26 +2708,26 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C23" s="12">
+      <c r="A23" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C23" s="3">
         <v>3</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -2739,29 +2745,29 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="3">
         <v>3</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -2780,26 +2786,26 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="3">
         <v>3</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -2818,26 +2824,26 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C26" s="12">
-        <v>3</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -2855,29 +2861,29 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="3">
         <v>3</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -2896,26 +2902,26 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="3">
         <v>3</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -2933,27 +2939,27 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="3">
         <v>3</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="E29" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -2971,29 +2977,29 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="3">
         <v>3</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -3011,29 +3017,29 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="3">
         <v>3</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -3051,29 +3057,29 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="3">
         <v>3</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -3092,26 +3098,26 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="3">
         <v>3</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -3130,24 +3136,24 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="3">
         <v>4</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -3165,29 +3171,29 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C35" s="12">
+    <row r="35" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C35" s="3">
         <v>4</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -3205,31 +3211,31 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C36" s="12">
+    <row r="36" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C36" s="3">
         <v>4</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F36" s="7" t="s">
+      <c r="E36" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -3247,33 +3253,33 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="C37" s="12">
+    <row r="37" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C37" s="3">
         <v>4</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E37" s="7" t="s">
+      <c r="D37" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="H37" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -3292,26 +3298,26 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C38" s="12">
+      <c r="A38" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C38" s="3">
         <v>4</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E38" s="7" t="s">
+      <c r="D38" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -3329,31 +3335,31 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C39" s="12">
+    <row r="39" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C39" s="3">
         <v>4</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -3371,31 +3377,31 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C40" s="12">
+    <row r="40" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C40" s="3">
         <v>4</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E40" s="7" t="s">
+      <c r="D40" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -3413,29 +3419,29 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C41" s="3">
+        <v>4</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C41" s="12">
-        <v>4</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -3454,28 +3460,28 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" s="3">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C42" s="12">
-        <v>4</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -3494,26 +3500,26 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="3">
         <v>4</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -3531,25 +3537,25 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C44" s="12">
+    <row r="44" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C44" s="3">
         <v>4</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
+      <c r="D44" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -3568,24 +3574,24 @@
       <c r="Z44" s="2"/>
     </row>
     <row r="45" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C45" s="12">
+      <c r="B45" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45" s="3">
         <v>4</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -3603,29 +3609,29 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C46" s="12">
+    <row r="46" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C46" s="3">
         <v>4</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F46" s="13" t="s">
+      <c r="E46" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -3643,29 +3649,29 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="3">
         <v>4</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -3683,33 +3689,33 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+    <row r="48" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="3">
         <v>4</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="G48" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H48" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
+      <c r="H48" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -3727,31 +3733,31 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C49" s="12">
+    <row r="49" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C49" s="3">
         <v>4</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="G49" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -3770,34 +3776,34 @@
       <c r="Z49" s="2"/>
     </row>
     <row r="50" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="3">
         <v>4</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G50" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="I50" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J50" s="7"/>
+      <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -3816,30 +3822,30 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="3">
         <v>4</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="G51" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -3857,33 +3863,33 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+    <row r="52" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C52" s="3">
+        <v>4</v>
+      </c>
+      <c r="D52" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="E52" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C52" s="12">
-        <v>4</v>
-      </c>
-      <c r="D52" s="8" t="s">
+      <c r="F52" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="G52" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H52" s="7" t="s">
+      <c r="H52" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -3902,28 +3908,28 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="3">
         <v>5</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -3941,35 +3947,35 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+    <row r="54" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="3">
         <v>5</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G54" s="13" t="s">
+      <c r="G54" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H54" s="13" t="s">
+      <c r="H54" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I54" s="13" t="s">
+      <c r="I54" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J54" s="7"/>
+      <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -3987,35 +3993,35 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+    <row r="55" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="3">
         <v>5</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G55" s="13" t="s">
+      <c r="G55" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="H55" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I55" s="13" t="s">
+      <c r="I55" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J55" s="7"/>
+      <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -4033,29 +4039,29 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+    <row r="56" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="3">
         <v>5</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F56" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -4073,29 +4079,29 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+    <row r="57" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="3">
         <v>5</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -4114,26 +4120,26 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="C58" s="12">
+      <c r="A58" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C58" s="3">
         <v>5</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -4151,27 +4157,27 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C59" s="12">
+    <row r="59" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C59" s="3">
         <v>5</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -4189,31 +4195,31 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C60" s="12">
+    <row r="60" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C60" s="3">
         <v>5</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G60" s="13" t="s">
+      <c r="G60" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -4231,29 +4237,29 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+    <row r="61" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C61" s="3">
+        <v>5</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C61" s="12">
-        <v>5</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -4272,24 +4278,24 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C62" s="3">
         <v>5</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -4307,29 +4313,29 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+    <row r="63" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63" s="3">
         <v>5</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F63" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -4348,26 +4354,26 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="3">
         <v>5</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -4386,30 +4392,30 @@
       <c r="Z64" s="2"/>
     </row>
     <row r="65" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="3">
         <v>5</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G65" s="13" t="s">
+      <c r="G65" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -4427,33 +4433,33 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C66" s="12">
+    <row r="66" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C66" s="3">
         <v>5</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G66" s="13" t="s">
+      <c r="G66" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H66" s="13" t="s">
+      <c r="H66" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -4472,24 +4478,24 @@
       <c r="Z66" s="2"/>
     </row>
     <row r="67" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C67" s="12">
+      <c r="A67" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C67" s="3">
         <v>5</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
+      <c r="D67" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -4507,29 +4513,29 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+    <row r="68" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="3">
         <v>5</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E68" s="13" t="s">
+      <c r="E68" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F68" s="13" t="s">
+      <c r="F68" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -4547,29 +4553,29 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C69" s="12">
+    <row r="69" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C69" s="3">
         <v>5</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="E69" s="13" t="s">
+      <c r="D69" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="E69" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F69" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
+      <c r="F69" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
@@ -4587,27 +4593,27 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="C70" s="12">
+    <row r="70" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C70" s="3">
         <v>5</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E70" s="13" t="s">
+      <c r="E70" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
@@ -4625,33 +4631,33 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="C71" s="12">
+    <row r="71" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C71" s="3">
         <v>5</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E71" s="13" t="s">
+      <c r="E71" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="F71" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G71" s="13" t="s">
+      <c r="G71" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H71" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
+      <c r="H71" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
@@ -4669,31 +4675,31 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C72" s="12">
+    <row r="72" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C72" s="3">
         <v>5</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F72" s="13" t="s">
+      <c r="F72" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G72" s="13" t="s">
+      <c r="G72" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -4711,33 +4717,33 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="C73" s="12">
+    <row r="73" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C73" s="3">
         <v>5</v>
       </c>
-      <c r="D73" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E73" s="7" t="s">
+      <c r="D73" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="H73" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="G73" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
@@ -4755,29 +4761,29 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
+    <row r="74" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C74" s="12">
+      <c r="C74" s="3">
         <v>5</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="E74" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F74" s="13" t="s">
+      <c r="F74" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
@@ -4796,26 +4802,26 @@
       <c r="Z74" s="2"/>
     </row>
     <row r="75" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="3">
         <v>5</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E75" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
@@ -4833,29 +4839,29 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C76" s="12">
+    <row r="76" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" s="3">
         <v>5</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="13" t="s">
+      <c r="F76" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
@@ -4873,29 +4879,29 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
+    <row r="77" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="3">
         <v>5</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F77" s="13" t="s">
+      <c r="F77" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
@@ -4913,31 +4919,31 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
+    <row r="78" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="12">
+      <c r="C78" s="3">
         <v>5</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="E78" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F78" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
+      <c r="F78" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
@@ -4955,29 +4961,29 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C79" s="12">
+    <row r="79" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C79" s="3">
         <v>6</v>
       </c>
-      <c r="D79" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E79" s="7" t="s">
+      <c r="D79" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F79" s="13" t="s">
+      <c r="F79" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
@@ -4995,25 +5001,25 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
+    <row r="80" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C80" s="3">
+        <v>6</v>
+      </c>
+      <c r="D80" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C80" s="12">
-        <v>6</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
@@ -5031,29 +5037,29 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C81" s="12">
+    <row r="81" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C81" s="3">
         <v>6</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
+      <c r="E81" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
@@ -5072,26 +5078,26 @@
       <c r="Z81" s="2"/>
     </row>
     <row r="82" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C82" s="12">
+      <c r="C82" s="3">
         <v>6</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E82" s="13" t="s">
+      <c r="E82" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
@@ -5109,29 +5115,29 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="C83" s="12">
+    <row r="83" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C83" s="3">
         <v>6</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F83" s="13" t="s">
+      <c r="F83" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
@@ -5149,27 +5155,27 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C84" s="12">
+    <row r="84" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C84" s="3">
         <v>6</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
@@ -5187,29 +5193,29 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
+    <row r="85" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C85" s="3">
+        <v>6</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B85" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="C85" s="12">
-        <v>6</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
@@ -5227,33 +5233,33 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
+    <row r="86" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C86" s="12">
+      <c r="C86" s="3">
         <v>6</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G86" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
+      <c r="G86" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
@@ -5271,29 +5277,29 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
+    <row r="87" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C87" s="12">
+      <c r="C87" s="3">
         <v>6</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E87" s="13" t="s">
+      <c r="E87" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F87" s="13" t="s">
+      <c r="F87" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
@@ -5311,27 +5317,27 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
+    <row r="88" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C88" s="12">
+      <c r="C88" s="3">
         <v>6</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
@@ -5349,33 +5355,33 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
+    <row r="89" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="12">
+      <c r="C89" s="3">
         <v>6</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F89" s="13" t="s">
+      <c r="F89" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G89" s="13" t="s">
+      <c r="G89" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H89" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
+      <c r="H89" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
@@ -5393,31 +5399,31 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C90" s="12">
+    <row r="90" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C90" s="3">
         <v>6</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E90" s="7" t="s">
+      <c r="D90" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F90" s="13" t="s">
+      <c r="F90" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G90" s="13" t="s">
+      <c r="G90" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
@@ -5435,33 +5441,33 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C91" s="12">
+    <row r="91" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C91" s="3">
         <v>6</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F91" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G91" s="13" t="s">
+      <c r="G91" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H91" s="13" t="s">
+      <c r="H91" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
@@ -5479,35 +5485,35 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
+    <row r="92" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C92" s="12">
+      <c r="C92" s="3">
         <v>7</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E92" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G92" s="13" t="s">
+      <c r="G92" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H92" s="13" t="s">
+      <c r="H92" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I92" s="13" t="s">
+      <c r="I92" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J92" s="7"/>
+      <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
@@ -5525,33 +5531,33 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C93" s="12">
+    <row r="93" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C93" s="3">
         <v>7</v>
       </c>
-      <c r="D93" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E93" s="7" t="s">
+      <c r="D93" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="H93" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="G93" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
@@ -5569,29 +5575,29 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C94" s="12">
+    <row r="94" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C94" s="3">
         <v>7</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E94" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="13" t="s">
+      <c r="F94" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
@@ -5610,26 +5616,26 @@
       <c r="Z94" s="2"/>
     </row>
     <row r="95" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C95" s="12">
+      <c r="C95" s="3">
         <v>7</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E95" s="13" t="s">
+      <c r="E95" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
@@ -5647,35 +5653,35 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C96" s="12">
+    <row r="96" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C96" s="3">
         <v>7</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E96" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="F96" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G96" s="16" t="s">
+      <c r="G96" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H96" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="I96" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="J96" s="7"/>
+      <c r="H96" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
@@ -5693,29 +5699,29 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C97" s="12">
+    <row r="97" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C97" s="3">
         <v>7</v>
       </c>
-      <c r="D97" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="E97" s="7" t="s">
+      <c r="D97" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F97" s="16" t="s">
+      <c r="F97" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
@@ -5734,32 +5740,32 @@
       <c r="Z97" s="2"/>
     </row>
     <row r="98" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C98" s="12">
+      <c r="C98" s="3">
         <v>7</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E98" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F98" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G98" s="16" t="s">
+      <c r="G98" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H98" s="7" t="s">
+      <c r="H98" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
@@ -5778,28 +5784,28 @@
       <c r="Z98" s="2"/>
     </row>
     <row r="99" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C99" s="12">
+      <c r="C99" s="3">
         <v>7</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E99" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F99" s="16" t="s">
+      <c r="F99" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
@@ -5817,33 +5823,33 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
+    <row r="100" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C100" s="12">
+      <c r="C100" s="3">
         <v>7</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F100" s="16" t="s">
+      <c r="F100" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="16" t="s">
+      <c r="G100" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H100" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
+      <c r="H100" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
@@ -5861,33 +5867,33 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="C101" s="12">
+    <row r="101" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C101" s="3">
         <v>8</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E101" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F101" s="16" t="s">
+      <c r="E101" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F101" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G101" s="16" t="s">
+      <c r="G101" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H101" s="7" t="s">
+      <c r="H101" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
@@ -5905,29 +5911,29 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C102" s="12">
+    <row r="102" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C102" s="3">
         <v>8</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E102" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F102" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
+      <c r="F102" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
@@ -5945,33 +5951,33 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="7" t="s">
+    <row r="103" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C103" s="12">
+      <c r="C103" s="3">
         <v>8</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E103" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="F103" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G103" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
+      <c r="G103" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
@@ -5989,31 +5995,31 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
+    <row r="104" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C104" s="3">
+        <v>8</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="C104" s="12">
-        <v>8</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="G104" s="7" t="s">
+      <c r="F104" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H104" s="7"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="7"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="2"/>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
@@ -6031,31 +6037,31 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
+    <row r="105" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C105" s="12">
+      <c r="C105" s="3">
         <v>8</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F105" s="16" t="s">
+      <c r="F105" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G105" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
+      <c r="G105" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
@@ -6074,26 +6080,26 @@
       <c r="Z105" s="2"/>
     </row>
     <row r="106" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C106" s="12">
+      <c r="C106" s="3">
         <v>8</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="E106" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
@@ -6111,35 +6117,35 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C107" s="12">
+    <row r="107" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C107" s="3">
         <v>8</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="G107" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F107" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H107" s="7" t="s">
+      <c r="H107" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="I107" s="16" t="s">
+      <c r="I107" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="J107" s="7"/>
+      <c r="J107" s="2"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
@@ -6157,31 +6163,31 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C108" s="12">
+    <row r="108" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C108" s="3">
         <v>8</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="E108" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F108" s="16" t="s">
+      <c r="F108" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G108" s="16" t="s">
+      <c r="G108" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
@@ -6199,29 +6205,29 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="C109" s="12">
+    <row r="109" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C109" s="3">
         <v>8</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D109" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E109" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F109" s="7" t="s">
+      <c r="E109" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G109" s="16"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
@@ -6239,29 +6245,29 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
+    <row r="110" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C110" s="12">
+      <c r="C110" s="3">
         <v>8</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="E110" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F110" s="16" t="s">
+      <c r="F110" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
@@ -6280,30 +6286,30 @@
       <c r="Z110" s="2"/>
     </row>
     <row r="111" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="C111" s="12">
+      <c r="A111" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C111" s="3">
         <v>8</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D111" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F111" s="16" t="s">
+      <c r="F111" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G111" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
+      <c r="G111" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
@@ -6321,33 +6327,33 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C112" s="12">
+    <row r="112" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C112" s="3">
         <v>8</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="E112" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="F112" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G112" s="16" t="s">
+      <c r="G112" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H112" s="16" t="s">
+      <c r="H112" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
@@ -6365,35 +6371,35 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="7" t="s">
+    <row r="113" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C113" s="12">
+      <c r="C113" s="3">
         <v>9</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D113" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E113" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F113" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G113" s="7" t="s">
+      <c r="G113" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H113" s="16" t="s">
+      <c r="H113" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I113" s="16" t="s">
+      <c r="I113" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="J113" s="7"/>
+      <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
@@ -6411,29 +6417,29 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
+    <row r="114" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C114" s="12">
+      <c r="C114" s="3">
         <v>9</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D114" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="F114" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
@@ -6451,31 +6457,31 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C115" s="12">
+    <row r="115" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C115" s="3">
         <v>9</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F115" s="16" t="s">
+      <c r="F115" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G115" s="16" t="s">
+      <c r="G115" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
@@ -6493,29 +6499,29 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="C116" s="12">
+    <row r="116" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C116" s="3">
         <v>9</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E116" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F116" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
+      <c r="E116" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
@@ -6533,31 +6539,31 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
+    <row r="117" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C117" s="12">
+      <c r="C117" s="3">
         <v>9</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D117" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="E117" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F117" s="16" t="s">
+      <c r="F117" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G117" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
+      <c r="G117" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
@@ -6575,29 +6581,29 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C118" s="12">
+    <row r="118" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C118" s="3">
         <v>9</v>
       </c>
-      <c r="D118" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="E118" s="7" t="s">
+      <c r="D118" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F118" s="16" t="s">
+      <c r="F118" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
@@ -6615,33 +6621,33 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="7" t="s">
+    <row r="119" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C119" s="12">
+      <c r="C119" s="3">
         <v>10</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D119" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E119" s="7" t="s">
+      <c r="E119" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="F119" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G119" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H119" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
+      <c r="G119" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
@@ -6659,29 +6665,29 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="7" t="s">
+    <row r="120" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C120" s="12">
+      <c r="C120" s="3">
         <v>10</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E120" s="7" t="s">
+      <c r="E120" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F120" s="16" t="s">
+      <c r="F120" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G120" s="16"/>
-      <c r="H120" s="7"/>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
@@ -6699,35 +6705,35 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C121" s="12">
+    <row r="121" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C121" s="3">
         <v>10</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D121" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E121" s="7" t="s">
+      <c r="E121" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F121" s="7" t="s">
+      <c r="F121" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G121" s="16" t="s">
+      <c r="G121" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H121" s="16" t="s">
+      <c r="H121" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I121" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="J121" s="7"/>
+      <c r="I121" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="J121" s="2"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
@@ -6745,31 +6751,31 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="7" t="s">
+    <row r="122" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C122" s="12">
+      <c r="C122" s="3">
         <v>10</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E122" s="16" t="s">
+      <c r="E122" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F122" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H122" s="7"/>
-      <c r="I122" s="7"/>
-      <c r="J122" s="7"/>
+      <c r="F122" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
@@ -6787,29 +6793,29 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C123" s="12">
+    <row r="123" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C123" s="3">
         <v>10</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D123" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="E123" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F123" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="7"/>
+      <c r="F123" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
@@ -6827,29 +6833,29 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B124" s="7" t="s">
+    <row r="124" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C124" s="12">
+      <c r="C124" s="3">
         <v>10</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E124" s="7" t="s">
+      <c r="E124" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F124" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
+      <c r="F124" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
@@ -6867,29 +6873,29 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="7" t="s">
+    <row r="125" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C125" s="12">
+      <c r="C125" s="3">
         <v>10</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D125" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E125" s="16" t="s">
+      <c r="E125" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="F125" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
-      <c r="J125" s="7"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
@@ -6907,33 +6913,33 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C126" s="12">
+    <row r="126" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C126" s="3">
         <v>10</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E126" s="16" t="s">
+      <c r="E126" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F126" s="16" t="s">
+      <c r="F126" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G126" s="7" t="s">
+      <c r="G126" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H126" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="I126" s="7"/>
-      <c r="J126" s="7"/>
+      <c r="H126" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
@@ -6951,35 +6957,35 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C127" s="12">
+    <row r="127" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C127" s="3">
         <v>10</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="D127" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E127" s="7" t="s">
+      <c r="E127" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F127" s="7" t="s">
+      <c r="F127" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G127" s="16" t="s">
+      <c r="G127" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H127" s="16" t="s">
+      <c r="H127" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I127" s="16" t="s">
+      <c r="I127" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="J127" s="7"/>
+      <c r="J127" s="2"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
@@ -6997,31 +7003,31 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="7" t="s">
+    <row r="128" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C128" s="12">
+      <c r="C128" s="3">
         <v>10</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="D128" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E128" s="7" t="s">
+      <c r="E128" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F128" s="16" t="s">
+      <c r="F128" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G128" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="H128" s="7"/>
-      <c r="I128" s="7"/>
-      <c r="J128" s="7"/>
+      <c r="G128" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
@@ -7039,29 +7045,29 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="C129" s="12">
+    <row r="129" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C129" s="3">
         <v>10</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="D129" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E129" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F129" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="G129" s="16"/>
-      <c r="H129" s="16"/>
-      <c r="I129" s="7"/>
-      <c r="J129" s="7"/>
+      <c r="E129" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="G129" s="13"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
@@ -7079,31 +7085,31 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="C130" s="12">
+    <row r="130" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C130" s="3">
         <v>10</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="D130" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E130" s="16" t="s">
+      <c r="E130" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F130" s="16" t="s">
+      <c r="F130" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G130" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="H130" s="7"/>
-      <c r="I130" s="7"/>
-      <c r="J130" s="7"/>
+      <c r="G130" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
@@ -7122,30 +7128,30 @@
       <c r="Z130" s="2"/>
     </row>
     <row r="131" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C131" s="12">
+      <c r="A131" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C131" s="3">
         <v>10</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D131" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E131" s="7" t="s">
+      <c r="E131" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F131" s="7" t="s">
+      <c r="F131" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G131" s="16" t="s">
+      <c r="G131" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
@@ -7164,26 +7170,26 @@
       <c r="Z131" s="2"/>
     </row>
     <row r="132" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C132" s="12">
+      <c r="C132" s="3">
         <v>10</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D132" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E132" s="7" t="s">
+      <c r="E132" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
-      <c r="I132" s="7"/>
-      <c r="J132" s="7"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
@@ -7201,29 +7207,29 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="7" t="s">
+    <row r="133" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C133" s="12">
+      <c r="C133" s="3">
         <v>10</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D133" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E133" s="7" t="s">
+      <c r="E133" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F133" s="16" t="s">
+      <c r="F133" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G133" s="16"/>
-      <c r="H133" s="16"/>
-      <c r="I133" s="7"/>
-      <c r="J133" s="7"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
@@ -7241,29 +7247,29 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B134" s="7" t="s">
+    <row r="134" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C134" s="12">
+      <c r="C134" s="3">
         <v>11</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D134" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E134" s="7" t="s">
+      <c r="E134" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F134" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
-      <c r="I134" s="7"/>
-      <c r="J134" s="7"/>
+      <c r="F134" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
@@ -7281,31 +7287,31 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="C135" s="12">
+    <row r="135" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C135" s="3">
         <v>11</v>
       </c>
-      <c r="D135" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F135" s="16" t="s">
+      <c r="D135" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F135" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G135" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="H135" s="7"/>
-      <c r="I135" s="7"/>
-      <c r="J135" s="7"/>
+      <c r="G135" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
@@ -7323,35 +7329,35 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="7" t="s">
+    <row r="136" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C136" s="12">
+      <c r="C136" s="3">
         <v>11</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D136" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E136" s="16" t="s">
+      <c r="E136" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F136" s="16" t="s">
+      <c r="F136" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G136" s="7" t="s">
+      <c r="G136" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H136" s="16" t="s">
+      <c r="H136" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I136" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="J136" s="7"/>
+      <c r="I136" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="J136" s="2"/>
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
@@ -7370,32 +7376,32 @@
       <c r="Z136" s="2"/>
     </row>
     <row r="137" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="C137" s="12">
+      <c r="A137" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C137" s="3">
         <v>11</v>
       </c>
-      <c r="D137" s="7" t="s">
+      <c r="D137" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E137" s="16" t="s">
+      <c r="E137" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F137" s="7" t="s">
+      <c r="F137" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G137" s="7" t="s">
+      <c r="G137" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H137" s="7" t="s">
+      <c r="H137" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
@@ -7414,30 +7420,30 @@
       <c r="Z137" s="2"/>
     </row>
     <row r="138" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C138" s="12">
+      <c r="A138" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C138" s="3">
         <v>11</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="D138" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E138" s="7" t="s">
+      <c r="E138" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F138" s="7" t="s">
+      <c r="F138" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G138" s="16" t="s">
+      <c r="G138" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H138" s="7"/>
-      <c r="I138" s="7"/>
-      <c r="J138" s="7"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
@@ -7455,31 +7461,31 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C139" s="12">
+    <row r="139" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C139" s="3">
         <v>12</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D139" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E139" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="G139" s="7" t="s">
+      <c r="E139" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H139" s="16"/>
-      <c r="I139" s="16"/>
-      <c r="J139" s="7"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="13"/>
+      <c r="J139" s="2"/>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
@@ -7497,29 +7503,29 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="C140" s="12">
+    <row r="140" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C140" s="3">
         <v>12</v>
       </c>
-      <c r="D140" s="7" t="s">
+      <c r="D140" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E140" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F140" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="G140" s="16"/>
-      <c r="H140" s="7"/>
-      <c r="I140" s="7"/>
-      <c r="J140" s="7"/>
+      <c r="E140" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G140" s="13"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
@@ -7537,34 +7543,34 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B141" s="7" t="s">
+    <row r="141" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C141" s="12">
+      <c r="C141" s="3">
         <v>12</v>
       </c>
-      <c r="D141" s="7" t="s">
+      <c r="D141" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E141" s="7" t="s">
+      <c r="E141" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F141" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
-      <c r="I141" s="7"/>
-      <c r="J141" s="7"/>
+      <c r="F141" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
       <c r="K141" s="2"/>
-      <c r="L141" s="5"/>
-      <c r="M141" s="5"/>
-      <c r="N141" s="5"/>
-      <c r="O141" s="5"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
+      <c r="O141" s="2"/>
       <c r="P141" s="2"/>
       <c r="Q141" s="2"/>
       <c r="R141" s="2"/>
@@ -7577,32 +7583,32 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="C142" s="18">
+    <row r="142" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C142" s="4">
         <v>12</v>
       </c>
-      <c r="D142" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="E142" s="16" t="s">
+      <c r="D142" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E142" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="9"/>
-      <c r="I142" s="9"/>
-      <c r="J142" s="9"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
       <c r="K142" s="5"/>
-      <c r="L142" s="2"/>
-      <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
-      <c r="O142" s="2"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
+      <c r="N142" s="5"/>
+      <c r="O142" s="5"/>
       <c r="P142" s="2"/>
       <c r="Q142" s="2"/>
       <c r="R142" s="2"/>
@@ -7616,30 +7622,30 @@
       <c r="Z142" s="2"/>
     </row>
     <row r="143" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C143" s="12">
+      <c r="A143" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C143" s="3">
         <v>12</v>
       </c>
-      <c r="D143" s="7" t="s">
+      <c r="D143" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E143" s="7" t="s">
+      <c r="E143" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F143" s="7" t="s">
+      <c r="F143" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G143" s="16" t="s">
+      <c r="G143" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H143" s="7"/>
-      <c r="I143" s="7"/>
-      <c r="J143" s="7"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
@@ -7657,33 +7663,33 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C144" s="12">
+    <row r="144" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C144" s="3">
         <v>12</v>
       </c>
-      <c r="D144" s="7" t="s">
+      <c r="D144" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E144" s="7" t="s">
+      <c r="E144" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F144" s="7" t="s">
+      <c r="F144" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G144" s="16" t="s">
+      <c r="G144" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H144" s="16" t="s">
+      <c r="H144" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I144" s="7"/>
-      <c r="J144" s="7"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
@@ -7702,32 +7708,32 @@
       <c r="Z144" s="2"/>
     </row>
     <row r="145" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="7" t="s">
+      <c r="A145" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C145" s="12">
+      <c r="C145" s="3">
         <v>12</v>
       </c>
-      <c r="D145" s="7" t="s">
+      <c r="D145" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E145" s="7" t="s">
+      <c r="E145" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F145" s="7" t="s">
+      <c r="F145" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G145" s="16" t="s">
+      <c r="G145" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="H145" s="16" t="s">
+      <c r="H145" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I145" s="7"/>
-      <c r="J145" s="7"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
@@ -7745,33 +7751,33 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="7" t="s">
+    <row r="146" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C146" s="12">
+      <c r="C146" s="3">
         <v>13</v>
       </c>
-      <c r="D146" s="7" t="s">
+      <c r="D146" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E146" s="7" t="s">
+      <c r="E146" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F146" s="16" t="s">
+      <c r="F146" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G146" s="16" t="s">
+      <c r="G146" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H146" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="I146" s="7"/>
-      <c r="J146" s="7"/>
+      <c r="H146" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
@@ -7789,33 +7795,33 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="7" t="s">
+    <row r="147" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C147" s="12">
+      <c r="C147" s="3">
         <v>13</v>
       </c>
-      <c r="D147" s="7" t="s">
+      <c r="D147" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E147" s="7" t="s">
+      <c r="E147" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F147" s="7" t="s">
+      <c r="F147" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G147" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H147" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="I147" s="7"/>
-      <c r="J147" s="7"/>
+      <c r="G147" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
@@ -7834,24 +7840,24 @@
       <c r="Z147" s="2"/>
     </row>
     <row r="148" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C148" s="12">
+      <c r="A148" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C148" s="3">
         <v>13</v>
       </c>
-      <c r="D148" s="7" t="s">
+      <c r="D148" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="7"/>
-      <c r="I148" s="7"/>
-      <c r="J148" s="7"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
@@ -7869,29 +7875,29 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="B149" s="7" t="s">
+    <row r="149" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C149" s="12">
+      <c r="C149" s="3">
         <v>13</v>
       </c>
-      <c r="D149" s="7" t="s">
+      <c r="D149" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E149" s="7" t="s">
+      <c r="E149" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F149" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
-      <c r="I149" s="7"/>
-      <c r="J149" s="7"/>
+      <c r="F149" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
@@ -7910,30 +7916,30 @@
       <c r="Z149" s="2"/>
     </row>
     <row r="150" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C150" s="12">
+      <c r="A150" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C150" s="3">
         <v>13</v>
       </c>
-      <c r="D150" s="7" t="s">
+      <c r="D150" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E150" s="7" t="s">
+      <c r="E150" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F150" s="7" t="s">
+      <c r="F150" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G150" s="16" t="s">
+      <c r="G150" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H150" s="7"/>
-      <c r="I150" s="7"/>
-      <c r="J150" s="7"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
@@ -7951,29 +7957,29 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="C151" s="12">
+    <row r="151" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C151" s="3">
         <v>13</v>
       </c>
-      <c r="D151" s="7" t="s">
+      <c r="D151" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E151" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F151" s="7" t="s">
+      <c r="E151" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G151" s="7"/>
-      <c r="H151" s="16"/>
-      <c r="I151" s="7"/>
-      <c r="J151" s="7"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="13"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
@@ -7991,31 +7997,31 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="7" t="s">
+    <row r="152" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C152" s="12">
+      <c r="C152" s="3">
         <v>14</v>
       </c>
-      <c r="D152" s="7" t="s">
+      <c r="D152" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E152" s="16" t="s">
+      <c r="E152" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F152" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H152" s="7"/>
-      <c r="I152" s="7"/>
-      <c r="J152" s="7"/>
+      <c r="F152" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
@@ -8033,29 +8039,29 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="C153" s="12">
+    <row r="153" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C153" s="3">
         <v>14</v>
       </c>
-      <c r="D153" s="7" t="s">
+      <c r="D153" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E153" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F153" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="G153" s="7"/>
-      <c r="H153" s="7"/>
-      <c r="I153" s="7"/>
-      <c r="J153" s="7"/>
+      <c r="E153" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
@@ -8073,29 +8079,29 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="B154" s="7" t="s">
+    <row r="154" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C154" s="12">
+      <c r="C154" s="3">
         <v>14</v>
       </c>
-      <c r="D154" s="7" t="s">
+      <c r="D154" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E154" s="7" t="s">
+      <c r="E154" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F154" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G154" s="7"/>
-      <c r="H154" s="7"/>
-      <c r="I154" s="7"/>
-      <c r="J154" s="7"/>
+      <c r="F154" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
@@ -8114,30 +8120,30 @@
       <c r="Z154" s="2"/>
     </row>
     <row r="155" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="C155" s="12">
+      <c r="A155" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C155" s="3">
         <v>14</v>
       </c>
-      <c r="D155" s="16" t="s">
+      <c r="D155" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E155" s="7" t="s">
+      <c r="E155" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F155" s="7" t="s">
+      <c r="F155" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G155" s="7" t="s">
+      <c r="G155" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H155" s="16"/>
-      <c r="I155" s="7"/>
-      <c r="J155" s="7"/>
+      <c r="H155" s="13"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
@@ -8156,24 +8162,24 @@
       <c r="Z155" s="2"/>
     </row>
     <row r="156" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C156" s="12">
+      <c r="A156" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C156" s="3">
         <v>15</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="D156" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E156" s="7"/>
-      <c r="F156" s="7"/>
-      <c r="G156" s="7"/>
-      <c r="H156" s="7"/>
-      <c r="I156" s="7"/>
-      <c r="J156" s="7"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
@@ -8191,31 +8197,31 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C157" s="12">
+    <row r="157" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C157" s="3">
         <v>15</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="D157" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E157" s="7" t="s">
+      <c r="E157" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F157" s="16" t="s">
+      <c r="F157" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G157" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H157" s="7"/>
-      <c r="I157" s="7"/>
-      <c r="J157" s="7"/>
+      <c r="G157" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
@@ -8233,29 +8239,29 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="C158" s="12">
+    <row r="158" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C158" s="3">
         <v>15</v>
       </c>
-      <c r="D158" s="7" t="s">
+      <c r="D158" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E158" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F158" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="G158" s="7"/>
-      <c r="H158" s="7"/>
-      <c r="I158" s="7"/>
-      <c r="J158" s="7"/>
+      <c r="E158" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
@@ -8273,29 +8279,29 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="C159" s="12">
+    <row r="159" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C159" s="3">
         <v>15</v>
       </c>
-      <c r="D159" s="7" t="s">
+      <c r="D159" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E159" s="16" t="s">
+      <c r="E159" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F159" s="7" t="s">
+      <c r="F159" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G159" s="7"/>
-      <c r="H159" s="7"/>
-      <c r="I159" s="7"/>
-      <c r="J159" s="7"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
@@ -8313,31 +8319,31 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="C160" s="12">
+    <row r="160" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C160" s="3">
         <v>16</v>
       </c>
-      <c r="D160" s="7" t="s">
+      <c r="D160" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E160" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F160" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="G160" s="7" t="s">
+      <c r="E160" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H160" s="16"/>
-      <c r="I160" s="7"/>
-      <c r="J160" s="7"/>
+      <c r="H160" s="13"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2"/>
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
@@ -8355,337 +8361,337 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C161" s="12">
+    <row r="161" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C161" s="3">
         <v>16</v>
       </c>
-      <c r="D161" s="7" t="s">
+      <c r="D161" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E161" s="7" t="s">
+      <c r="E161" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F161" s="7" t="s">
+      <c r="F161" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G161" s="16" t="s">
+      <c r="G161" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H161" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="I161" s="7"/>
-      <c r="J161" s="7"/>
+      <c r="H161" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
     </row>
-    <row r="162" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C162" s="12">
+    <row r="162" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C162" s="3">
         <v>16</v>
       </c>
-      <c r="D162" s="7" t="s">
+      <c r="D162" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E162" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F162" s="7" t="s">
+      <c r="E162" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F162" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G162" s="7" t="s">
+      <c r="G162" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H162" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="I162" s="7"/>
-      <c r="J162" s="7"/>
+      <c r="H162" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
     </row>
-    <row r="163" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C163" s="12">
+    <row r="163" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C163" s="3">
         <v>16</v>
       </c>
-      <c r="D163" s="7" t="s">
+      <c r="D163" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E163" s="7" t="s">
+      <c r="E163" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F163" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G163" s="7"/>
-      <c r="H163" s="7"/>
-      <c r="I163" s="7"/>
-      <c r="J163" s="7"/>
+      <c r="F163" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
     </row>
-    <row r="164" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C164" s="12">
+    <row r="164" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C164" s="3">
         <v>17</v>
       </c>
-      <c r="D164" s="7" t="s">
+      <c r="D164" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E164" s="7" t="s">
+      <c r="E164" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F164" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G164" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="H164" s="7"/>
-      <c r="I164" s="7"/>
-      <c r="J164" s="7"/>
+      <c r="F164" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
     </row>
-    <row r="165" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="7" t="s">
+    <row r="165" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B165" s="7" t="s">
+      <c r="B165" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C165" s="12">
+      <c r="C165" s="3">
         <v>17</v>
       </c>
-      <c r="D165" s="7" t="s">
+      <c r="D165" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E165" s="7" t="s">
+      <c r="E165" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F165" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="G165" s="7"/>
-      <c r="H165" s="7"/>
-      <c r="I165" s="7"/>
-      <c r="J165" s="7"/>
+      <c r="F165" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
     </row>
-    <row r="166" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="C166" s="12">
+    <row r="166" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C166" s="3">
         <v>17</v>
       </c>
-      <c r="D166" s="7" t="s">
+      <c r="D166" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E166" s="7" t="s">
+      <c r="E166" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F166" s="7" t="s">
+      <c r="F166" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G166" s="16" t="s">
+      <c r="G166" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H166" s="16" t="s">
+      <c r="H166" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I166" s="16" t="s">
+      <c r="I166" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J166" s="7"/>
+      <c r="J166" s="2"/>
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
     </row>
-    <row r="167" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="C167" s="12">
+    <row r="167" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C167" s="3">
         <v>18</v>
       </c>
-      <c r="D167" s="7" t="s">
+      <c r="D167" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E167" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F167" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="G167" s="7"/>
-      <c r="H167" s="7"/>
-      <c r="I167" s="7"/>
-      <c r="J167" s="7"/>
+      <c r="E167" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
     </row>
-    <row r="168" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="7" t="s">
+    <row r="168" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B168" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C168" s="12">
+      <c r="C168" s="3">
         <v>18</v>
       </c>
-      <c r="D168" s="7" t="s">
+      <c r="D168" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E168" s="16" t="s">
+      <c r="E168" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F168" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G168" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H168" s="7"/>
-      <c r="I168" s="7"/>
-      <c r="J168" s="7"/>
+      <c r="F168" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
     </row>
-    <row r="169" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C169" s="12">
+    <row r="169" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C169" s="3">
         <v>18</v>
       </c>
-      <c r="D169" s="7" t="s">
+      <c r="D169" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E169" s="7" t="s">
+      <c r="E169" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F169" s="16" t="s">
+      <c r="F169" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G169" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H169" s="7"/>
-      <c r="I169" s="7"/>
-      <c r="J169" s="7"/>
+      <c r="G169" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
     </row>
-    <row r="170" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="B170" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="C170" s="18">
+    <row r="170" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C170" s="4">
         <v>19</v>
       </c>
-      <c r="D170" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="E170" s="16" t="s">
+      <c r="D170" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E170" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F170" s="9"/>
-      <c r="G170" s="9"/>
-      <c r="H170" s="9"/>
-      <c r="I170" s="9"/>
-      <c r="J170" s="9"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5"/>
       <c r="K170" s="5"/>
       <c r="L170" s="5"/>
       <c r="M170" s="5"/>
       <c r="N170" s="5"/>
       <c r="O170" s="5"/>
     </row>
-    <row r="171" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="7" t="s">
+    <row r="171" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="B171" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C171" s="12">
+      <c r="C171" s="3">
         <v>19</v>
       </c>
-      <c r="D171" s="7" t="s">
+      <c r="D171" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E171" s="16" t="s">
+      <c r="E171" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F171" s="16" t="s">
+      <c r="F171" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G171" s="7"/>
-      <c r="H171" s="7"/>
-      <c r="I171" s="7"/>
-      <c r="J171" s="7"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2"/>
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
@@ -8693,32 +8699,32 @@
       <c r="O171" s="2"/>
     </row>
     <row r="172" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="C172" s="12">
+      <c r="A172" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C172" s="3">
         <v>19</v>
       </c>
-      <c r="D172" s="7" t="s">
+      <c r="D172" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E172" s="16" t="s">
+      <c r="E172" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F172" s="7" t="s">
+      <c r="F172" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G172" s="7" t="s">
+      <c r="G172" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H172" s="7" t="s">
+      <c r="H172" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I172" s="8"/>
-      <c r="J172" s="7"/>
+      <c r="I172" s="11"/>
+      <c r="J172" s="2"/>
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
@@ -8726,61 +8732,61 @@
       <c r="O172" s="2"/>
     </row>
     <row r="173" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="C173" s="12">
+      <c r="A173" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C173" s="3">
         <v>20</v>
       </c>
-      <c r="D173" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="E173" s="7" t="s">
+      <c r="D173" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F173" s="16" t="s">
+      <c r="F173" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G173" s="7" t="s">
+      <c r="G173" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H173" s="7"/>
-      <c r="I173" s="7"/>
-      <c r="J173" s="7"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2"/>
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
     </row>
-    <row r="174" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="7" t="s">
+    <row r="174" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C174" s="3">
+        <v>20</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E174" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B174" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="C174" s="12">
-        <v>20</v>
-      </c>
-      <c r="D174" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E174" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F174" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G174" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H174" s="7"/>
-      <c r="I174" s="7"/>
-      <c r="J174" s="7"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
@@ -8788,406 +8794,404 @@
       <c r="O174" s="2"/>
     </row>
     <row r="175" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="C175" s="12">
+      <c r="A175" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C175" s="3">
         <v>20</v>
       </c>
-      <c r="D175" s="7" t="s">
+      <c r="D175" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E175" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F175" s="7" t="s">
+      <c r="E175" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F175" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G175" s="17" t="s">
+      <c r="G175" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H175" s="7"/>
-      <c r="I175" s="7"/>
-      <c r="J175" s="7"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
     </row>
-    <row r="176" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="B176" s="7" t="s">
+    <row r="176" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C176" s="12">
+      <c r="C176" s="3">
         <v>21</v>
       </c>
-      <c r="D176" s="7" t="s">
+      <c r="D176" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E176" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F176" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="G176" s="7"/>
-      <c r="H176" s="7"/>
-      <c r="I176" s="7"/>
-      <c r="J176" s="7"/>
+      <c r="E176" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
     </row>
-    <row r="177" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="C177" s="12">
+    <row r="177" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C177" s="3">
         <v>21</v>
       </c>
-      <c r="D177" s="7" t="s">
+      <c r="D177" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E177" s="16" t="s">
+      <c r="E177" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F177" s="7" t="s">
+      <c r="F177" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G177" s="7"/>
-      <c r="H177" s="7"/>
-      <c r="I177" s="7"/>
-      <c r="J177" s="7"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2"/>
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
     </row>
-    <row r="178" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C178" s="12">
+    <row r="178" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C178" s="3">
         <v>21</v>
       </c>
-      <c r="D178" s="7" t="s">
+      <c r="D178" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E178" s="7" t="s">
+      <c r="E178" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F178" s="7" t="s">
+      <c r="F178" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G178" s="16" t="s">
+      <c r="G178" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H178" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="I178" s="7"/>
-      <c r="J178" s="7"/>
+      <c r="H178" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
     </row>
-    <row r="179" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="7" t="s">
+    <row r="179" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B179" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C179" s="12">
+      <c r="C179" s="3">
         <v>22</v>
       </c>
-      <c r="D179" s="7" t="s">
+      <c r="D179" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E179" s="16" t="s">
+      <c r="E179" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F179" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G179" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H179" s="7"/>
-      <c r="I179" s="7"/>
-      <c r="J179" s="7"/>
+      <c r="F179" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2"/>
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
     </row>
-    <row r="180" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C180" s="12">
+    <row r="180" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C180" s="3">
         <v>22</v>
       </c>
-      <c r="D180" s="7" t="s">
+      <c r="D180" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E180" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F180" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="G180" s="16"/>
-      <c r="H180" s="16"/>
-      <c r="I180" s="7"/>
-      <c r="J180" s="7"/>
+      <c r="E180" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F180" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="G180" s="13"/>
+      <c r="H180" s="13"/>
+      <c r="I180" s="2"/>
+      <c r="J180" s="2"/>
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
     </row>
-    <row r="181" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="C181" s="12">
+    <row r="181" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C181" s="3">
         <v>22</v>
       </c>
-      <c r="D181" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="E181" s="7" t="s">
+      <c r="D181" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F181" s="7" t="s">
+      <c r="F181" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G181" s="16" t="s">
+      <c r="G181" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H181" s="16" t="s">
+      <c r="H181" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I181" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="J181" s="7"/>
+      <c r="I181" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="J181" s="2"/>
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
     </row>
-    <row r="182" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="C182" s="12">
+    <row r="182" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C182" s="3">
         <v>23</v>
       </c>
-      <c r="D182" s="7" t="s">
+      <c r="D182" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E182" s="7" t="s">
+      <c r="E182" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F182" s="7" t="s">
+      <c r="F182" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G182" s="16" t="s">
+      <c r="G182" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H182" s="16" t="s">
+      <c r="H182" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I182" s="16" t="s">
+      <c r="I182" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J182" s="7"/>
+      <c r="J182" s="2"/>
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
     </row>
-    <row r="183" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C183" s="12">
+    <row r="183" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C183" s="3">
         <v>23</v>
       </c>
-      <c r="D183" s="8" t="s">
+      <c r="D183" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E183" s="7" t="s">
+      <c r="E183" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F183" s="7" t="s">
+      <c r="F183" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G183" s="7" t="s">
+      <c r="G183" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H183" s="13" t="s">
+      <c r="H183" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I183" s="7"/>
-      <c r="J183" s="7"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2"/>
       <c r="K183" s="2"/>
-      <c r="L183" s="2" t="s">
-        <v>351</v>
-      </c>
+      <c r="L183" s="2"/>
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
     </row>
-    <row r="184" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="C184" s="12">
+    <row r="184" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C184" s="3">
         <v>23</v>
       </c>
-      <c r="D184" s="7" t="s">
+      <c r="D184" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E184" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="F184" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="G184" s="7"/>
-      <c r="H184" s="7"/>
-      <c r="I184" s="7"/>
-      <c r="J184" s="7"/>
+      <c r="E184" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2"/>
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
     </row>
-    <row r="185" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="C185" s="12">
+    <row r="185" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C185" s="3">
         <v>24</v>
       </c>
-      <c r="D185" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="E185" s="7" t="s">
+      <c r="D185" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F185" s="13" t="s">
+      <c r="F185" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G185" s="7" t="s">
+      <c r="G185" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H185" s="7"/>
-      <c r="I185" s="7"/>
-      <c r="J185" s="7"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
     </row>
-    <row r="186" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C186" s="12">
+    <row r="186" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C186" s="3">
         <v>24</v>
       </c>
-      <c r="D186" s="7" t="s">
+      <c r="D186" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E186" s="7" t="s">
+      <c r="E186" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F186" s="7" t="s">
+      <c r="F186" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G186" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="H186" s="7"/>
-      <c r="I186" s="7"/>
-      <c r="J186" s="7"/>
+      <c r="G186" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2"/>
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
     </row>
-    <row r="187" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="C187" s="12">
+    <row r="187" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C187" s="3">
         <v>24</v>
       </c>
-      <c r="D187" s="7" t="s">
+      <c r="D187" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E187" s="16" t="s">
+      <c r="E187" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F187" s="7" t="s">
+      <c r="F187" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G187" s="7"/>
-      <c r="H187" s="7"/>
-      <c r="I187" s="7"/>
-      <c r="J187" s="7"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2"/>
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
@@ -9195,125 +9199,125 @@
       <c r="O187" s="2"/>
     </row>
     <row r="188" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="7" t="s">
+      <c r="A188" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C188" s="3">
+        <v>25</v>
+      </c>
+      <c r="D188" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H188" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="B188" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="C188" s="12">
-        <v>25</v>
-      </c>
-      <c r="D188" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E188" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F188" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G188" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H188" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="I188" s="7"/>
-      <c r="J188" s="7"/>
+      <c r="I188" s="2"/>
+      <c r="J188" s="2"/>
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
     </row>
-    <row r="189" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="B189" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="C189" s="18">
+    <row r="189" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C189" s="4">
         <v>25</v>
       </c>
-      <c r="D189" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="E189" s="16" t="s">
+      <c r="D189" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E189" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F189" s="19" t="s">
+      <c r="F189" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G189" s="9" t="s">
+      <c r="G189" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H189" s="9"/>
-      <c r="I189" s="9"/>
-      <c r="J189" s="9"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
+      <c r="J189" s="5"/>
       <c r="K189" s="5"/>
-      <c r="L189" s="2"/>
-      <c r="M189" s="2"/>
-      <c r="N189" s="2"/>
-      <c r="O189" s="2"/>
-    </row>
-    <row r="190" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="C190" s="12">
+      <c r="L189" s="5"/>
+      <c r="M189" s="5"/>
+      <c r="N189" s="5"/>
+      <c r="O189" s="5"/>
+    </row>
+    <row r="190" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C190" s="3">
         <v>25</v>
       </c>
-      <c r="D190" s="7" t="s">
+      <c r="D190" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E190" s="7" t="s">
+      <c r="E190" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F190" s="13" t="s">
+      <c r="F190" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G190" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H190" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="I190" s="7"/>
-      <c r="J190" s="7"/>
+      <c r="G190" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I190" s="2"/>
+      <c r="J190" s="2"/>
       <c r="K190" s="2"/>
-      <c r="L190" s="5"/>
-      <c r="M190" s="5"/>
-      <c r="N190" s="5"/>
-      <c r="O190" s="5"/>
-    </row>
-    <row r="191" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="7" t="s">
+      <c r="L190" s="2"/>
+      <c r="M190" s="2"/>
+      <c r="N190" s="2"/>
+      <c r="O190" s="2"/>
+    </row>
+    <row r="191" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B191" s="7" t="s">
+      <c r="B191" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C191" s="12">
+      <c r="C191" s="3">
         <v>25</v>
       </c>
-      <c r="D191" s="7" t="s">
+      <c r="D191" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E191" s="7" t="s">
+      <c r="E191" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F191" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="G191" s="7"/>
-      <c r="H191" s="7"/>
-      <c r="I191" s="7"/>
-      <c r="J191" s="7"/>
+      <c r="F191" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2"/>
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
@@ -9331,7 +9335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C63F3E-3404-4A0E-97BA-63F4410B1FBD}">
   <dimension ref="B1:M364"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A178" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D190"/>
     </sheetView>
   </sheetViews>

--- a/bingo.xlsx
+++ b/bingo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zdi\Desktop\BotWBingo2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B845A249-B541-40AE-8CE5-3203E36185B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1536BD-B561-4424-998B-C0D45EFC2736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1785" yWindow="615" windowWidth="14535" windowHeight="11910" xr2:uid="{7A75FF53-CC48-47AA-AE80-4125BC61A84A}"/>
   </bookViews>
@@ -1839,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BE05A9-9116-44E7-95B0-CA26E7968EB5}">
   <dimension ref="A1:Z191"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9335,7 +9335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C63F3E-3404-4A0E-97BA-63F4410B1FBD}">
   <dimension ref="B1:M364"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A175" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D190"/>
     </sheetView>
   </sheetViews>
